--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed3/result_data_KNN.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.378</v>
+        <v>16.547</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.6</v>
+        <v>6.185</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>6.316</v>
+        <v>6.221</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.618</v>
+        <v>5.315</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.958</v>
+        <v>16.994</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.054</v>
+        <v>16.361</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.516</v>
+        <v>5.137</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>16.64</v>
+        <v>16.536</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.552</v>
+        <v>16.44600000000001</v>
       </c>
     </row>
     <row r="21">
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.272</v>
+        <v>6.037</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.854</v>
+        <v>16.931</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.208</v>
+        <v>16.358</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.85</v>
+        <v>16.426</v>
       </c>
     </row>
     <row r="32">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.156</v>
+        <v>16.589</v>
       </c>
     </row>
     <row r="36">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.416</v>
+        <v>8.643000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>16.706</v>
+        <v>16.627</v>
       </c>
     </row>
     <row r="41">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.932</v>
+        <v>16.481</v>
       </c>
     </row>
     <row r="45">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.48</v>
+        <v>16.326</v>
       </c>
     </row>
     <row r="51">
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.632</v>
+        <v>16.762</v>
       </c>
     </row>
     <row r="55">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.572</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1587,7 +1587,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.578</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.69</v>
+        <v>17.272</v>
       </c>
     </row>
     <row r="69">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.29</v>
+        <v>16.623</v>
       </c>
     </row>
     <row r="77">
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>6.202</v>
+        <v>5.601</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>7.492000000000002</v>
+        <v>7.571000000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>5.556</v>
+        <v>5.353</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1791,7 +1791,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>8.83</v>
+        <v>7.845999999999999</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.256000000000001</v>
+        <v>6.452</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.018</v>
+        <v>5.659000000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.764</v>
+        <v>5.427000000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.626</v>
+        <v>16.349</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.48</v>
+        <v>16.285</v>
       </c>
     </row>
     <row r="89">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.992</v>
+        <v>17.901</v>
       </c>
     </row>
     <row r="93">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.926</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.302</v>
+        <v>16.282</v>
       </c>
     </row>
     <row r="99">
@@ -2148,7 +2148,7 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>8.353999999999999</v>
+        <v>6.691</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.666</v>
+        <v>16.646</v>
       </c>
     </row>
     <row r="102">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.388000000000002</v>
+        <v>7.937</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.39</v>
+        <v>16.542</v>
       </c>
     </row>
   </sheetData>
